--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.51539999999998</v>
+        <v>-20.50609999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -542,15 +542,15 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.49089999999999</v>
+        <v>16.56789999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.9825</v>
+        <v>-21.9068</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5891</v>
+        <v>4.971200000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.009299999999995</v>
+        <v>4.738899999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.79159999999999</v>
+        <v>-21.9113</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.7351</v>
+        <v>-12.639</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,13 +757,13 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.88920000000001</v>
+        <v>-13.02980000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.18729999999998</v>
+        <v>16.31609999999999</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9936</v>
+        <v>16.1478</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.4592</v>
+        <v>10.6061</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.39800000000001</v>
+        <v>16.39650000000002</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.2634</v>
+        <v>10.0795</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.848700000000001</v>
+        <v>8.776999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.5764</v>
+        <v>16.18069999999999</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0639</v>
+        <v>-21.9659</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.32999999999998</v>
+        <v>-21.57169999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1636</v>
+        <v>-21.219</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.578700000000008</v>
+        <v>8.302000000000007</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.029200000000005</v>
+        <v>-8.084500000000002</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.9574</v>
+        <v>16.09139999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.54500000000001</v>
+        <v>-12.75720000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.69119999999999</v>
+        <v>15.42609999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.38979999999999</v>
+        <v>-19.33899999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.34099999999999</v>
+        <v>16.51599999999998</v>
       </c>
     </row>
     <row r="42">
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.7811</v>
+        <v>5.225399999999999</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.258800000000001</v>
+        <v>-8.303700000000003</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.100600000000003</v>
+        <v>5.1849</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.45789999999999</v>
+        <v>-14.61519999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.469099999999998</v>
+        <v>-7.395999999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.027299999999999</v>
+        <v>4.843899999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.0805</v>
+        <v>-13.58699999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.726499999999999</v>
+        <v>5.802899999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1086</v>
+        <v>-22.285</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.48360000000001</v>
+        <v>-22.2694</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4043</v>
+        <v>-21.4781</v>
       </c>
       <c r="B66" t="n">
-        <v>6.026999999999997</v>
+        <v>5.666999999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.578599999999999</v>
+        <v>5.259299999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.709699999999999</v>
+        <v>-7.441799999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1678,10 +1678,10 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.860699999999992</v>
+        <v>-7.901099999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>16.27339999999999</v>
+        <v>16.34069999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.28349999999999</v>
+        <v>16.24699999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.902600000000007</v>
+        <v>9.773700000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.522700000000002</v>
+        <v>5.1897</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.2612</v>
+        <v>16.3587</v>
       </c>
     </row>
     <row r="86">
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.602599999999995</v>
+        <v>-8.499799999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.903399999999999</v>
+        <v>4.665599999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.2534</v>
+        <v>-6.215800000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.8845</v>
+        <v>-12.2179</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.587200000000003</v>
+        <v>6.376699999999995</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.1963</v>
+        <v>-12.4018</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.17989999999999</v>
+        <v>16.3665</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.15169999999999</v>
+        <v>-22.1847</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.168199999999999</v>
+        <v>-8.151</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
